--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="141">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -366,6 +366,78 @@
   </si>
   <si>
     <t xml:space="preserve">RPC Test Rev 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어 #10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2GTRE.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeuib.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanab.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taileb.ttf</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -1619,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -2347,6 +2419,176 @@
         <v>50</v>
       </c>
     </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="150">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -438,6 +438,33 @@
   </si>
   <si>
     <t xml:space="preserve">taileb.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPC Test Rev &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirmwareVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatusTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ControlTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1715,7 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -1699,12 +1726,14 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
       <c r="J5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8" t="s">
@@ -1723,7 +1752,7 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1757,6 +1786,25 @@
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="8" t="s">
         <v>12</v>
@@ -1948,13 +1996,13 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1965,7 +2013,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -1982,7 +2030,7 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1999,7 +2047,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -2016,7 +2064,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -2033,7 +2081,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -2050,7 +2098,7 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -2067,7 +2115,7 @@
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -2084,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -2101,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -2118,7 +2166,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2135,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -2152,7 +2200,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -2169,7 +2217,7 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -2186,7 +2234,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -2203,7 +2251,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -2220,7 +2268,7 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -2237,7 +2285,7 @@
         <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -2254,7 +2302,7 @@
         <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -2271,7 +2319,7 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
@@ -2288,7 +2336,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -2305,7 +2353,7 @@
         <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -2322,7 +2370,7 @@
         <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -2339,7 +2387,7 @@
         <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
@@ -2356,7 +2404,7 @@
         <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -2373,7 +2421,7 @@
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -2390,7 +2438,7 @@
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
@@ -2407,7 +2455,7 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
@@ -2424,7 +2472,7 @@
         <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -2441,7 +2489,7 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -2458,7 +2506,7 @@
         <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -2475,7 +2523,7 @@
         <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -2492,7 +2540,7 @@
         <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -2509,7 +2557,7 @@
         <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
@@ -2526,7 +2574,7 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -2543,7 +2591,7 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -2560,7 +2608,7 @@
         <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -2577,7 +2625,7 @@
         <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -2586,6 +2634,23 @@
         <v>136</v>
       </c>
       <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
         <v>50</v>
       </c>
     </row>
